--- a/data/long_bre/P31-Estudios-long_bre.xlsx
+++ b/data/long_bre/P31-Estudios-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-14,67</t>
+          <t>-9,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,97%</t>
+          <t>-22,03%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-11,82%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,58; -0,95</t>
+          <t>-30,12; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 3,91</t>
+          <t>-18,66; 4,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,83; -1,08</t>
+          <t>-15,23; 13,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 12,51</t>
+          <t>-54,61; 12,55</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-40,93; 14,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-39,17; 64,57</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 20,67</t>
+          <t>-9,09; 19,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 15,23</t>
+          <t>-6,86; 13,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 78,12</t>
+          <t>-11,13; 16,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 58,51</t>
+          <t>-20,12; 72,62</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; 51,06</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-33,44; 91,21</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>26,08%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 17,99</t>
+          <t>-4,81; 14,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 10,89</t>
+          <t>-6,59; 12,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 129,35</t>
+          <t>-23,59; 15,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 41,95</t>
+          <t>-19,73; 108,66</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-18,06; 48,96</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-39,39; 46,68</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 12,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 5,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 33,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 16,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 8,73</t>
+          <t>1,32; 18,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,43</t>
+          <t>-6,87; 5,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 53,87</t>
+          <t>-3,09; 13,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 74,5</t>
+          <t>2,83; 53,84</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 18,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 46,9</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,54</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,94%</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>45,8%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -0,53</t>
+          <t>-4,33; 9,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 2,01</t>
+          <t>0,25; 11,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,15; -1,62</t>
+          <t>0,25; 11,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 5,01</t>
+          <t>-20,61; 57,53</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 70,79</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 108,9</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>-12,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>-11,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-30,91%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-12,15%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-21,33%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 14,77</t>
+          <t>-21,37; -4,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 6,53</t>
+          <t>-12,51; 1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 38,59</t>
+          <t>-19,63; -3,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 18,78</t>
+          <t>-45,03; -13,4</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-25,83; 2,78</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; -6,05</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,52%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 4,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 33,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 41,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-11,02%</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 4,75</t>
+          <t>-3,5; 14,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 7,57</t>
+          <t>-6,97; 7,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 14,27</t>
+          <t>-3,9; 13,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 18,02</t>
+          <t>-6,91; 36,39</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-16,59; 24,19</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,5; 44,27</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 6,3</t>
+          <t>-5,04; 8,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 2,64</t>
+          <t>-5,01; 5,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 15,72</t>
+          <t>-3,52; 6,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 7,69</t>
+          <t>-27,99; 73,57</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-27,79; 43,86</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 95,95</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>-17,37%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,14</t>
+          <t>-16,47; 2,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,5</t>
+          <t>-8,07; 6,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 37,32</t>
+          <t>-15,97; 2,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,91; 43,65</t>
+          <t>-36,0; 6,6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 15,79</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 4,92</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,668 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 1,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 5,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-15,27</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-28,31%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-26,66; -2,56</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-44,0; -5,49</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>7,99</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>39,58%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 18,43</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 121,48</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 17,21</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; 88,22</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-3,03%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 6,24</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 3,65</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 9,27</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 15,43</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-14,7; 10,88</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 30,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>18,54%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 8,02</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 7,01</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 8,63</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 43,05</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 37,04</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 69,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-5,06</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>-7,27</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>-14,32%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-5,73%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-14,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; -0,01</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 2,26</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; -1,04</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 0,03</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-16,34; 5,58</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-24,18; -1,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
